--- a/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab2/Lab02_BBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FD41C1-4EE7-47EB-9A1B-10B684C9723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8C46B-8E45-4FFD-AC78-8E7D83B31A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="609" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -405,9 +405,6 @@
     <t>TC1_ECP</t>
   </si>
   <si>
-    <t>TC3_ECP</t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
@@ -596,18 +593,9 @@
     <t>08. amount  = 0</t>
   </si>
   <si>
-    <t>09. amount = 1</t>
-  </si>
-  <si>
-    <t>10. amount = max - 1</t>
-  </si>
-  <si>
     <t>11. amount = max</t>
   </si>
   <si>
-    <t>12. amount = max + 1</t>
-  </si>
-  <si>
     <t>F01. adăugarea unui plati noi nou (int table, PaymentType paymentType, double amount);</t>
   </si>
   <si>
@@ -617,12 +605,6 @@
     <t>amount is double, amount &gt; 0</t>
   </si>
   <si>
-    <t>01. table = 1.4 , table = string</t>
-  </si>
-  <si>
-    <t>max-1</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -632,23 +614,50 @@
     <t>TC2_ECP</t>
   </si>
   <si>
-    <t>TC4_ECP</t>
-  </si>
-  <si>
     <t>Invalid amount!</t>
   </si>
   <si>
-    <t>Invalid table! Invalid amount!</t>
-  </si>
-  <si>
     <t>Invalid table!</t>
+  </si>
+  <si>
+    <t>01. table = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message-? </t>
+  </si>
+  <si>
+    <t>09. amount = 0.01</t>
+  </si>
+  <si>
+    <t>10. amount = max - 0.01</t>
+  </si>
+  <si>
+    <t>12. amount = max + 0.01</t>
+  </si>
+  <si>
+    <t>Error message-?  Compiler check</t>
+  </si>
+  <si>
+    <t>max-0.01</t>
+  </si>
+  <si>
+    <t>max+0.01</t>
+  </si>
+  <si>
+    <t>TC2_BVA</t>
+  </si>
+  <si>
+    <t>TC8_BVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not throw ex </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +865,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1327,7 +1351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1454,6 +1478,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,6 +1502,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1505,49 +1583,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1565,26 +1619,74 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1634,83 +1736,33 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2021,7 +2073,7 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2035,12 +2087,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
       <c r="H1" s="49" t="s">
         <v>1</v>
       </c>
@@ -2048,11 +2100,11 @@
       <c r="J1" s="49"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H3" s="2"/>
@@ -2136,7 +2188,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2159,7 +2211,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -2203,21 +2255,21 @@
     </row>
     <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46"/>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="48"/>
@@ -2240,8 +2292,8 @@
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2262,43 +2314,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
+      <c r="B3" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="G5" s="68" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="G5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
@@ -2313,65 +2365,65 @@
       <c r="E6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="85" t="s">
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="85"/>
+      <c r="Q6" s="73"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="61" t="s">
-        <v>95</v>
+      <c r="C7" s="79" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="84"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="K7" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="81" t="s">
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="82"/>
+      <c r="Q7" s="70"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="52"/>
       <c r="H8" s="51"/>
@@ -2389,139 +2441,139 @@
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="22">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" s="2">
         <v>198</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="80"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="66"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>79</v>
+      <c r="C10" s="79" t="s">
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4"/>
       <c r="G10" s="22">
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2">
         <v>-5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" s="2">
         <v>178</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="80"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="66"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="34">
         <v>3</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="14">
         <v>-3</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" s="14">
         <v>-180</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" s="74"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="78"/>
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="34">
         <v>4</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="14">
         <v>7</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" s="14">
         <v>-200</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" s="74"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="78"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="13">
@@ -2542,7 +2594,7 @@
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="13">
@@ -2563,7 +2615,7 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="19">
@@ -2575,16 +2627,16 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="78"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="68"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="79" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="4"/>
@@ -2598,16 +2650,16 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="78"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="68"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="19"/>
@@ -2617,16 +2669,16 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="78"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="68"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="79" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="4"/>
@@ -2638,16 +2690,16 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="78"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="19"/>
@@ -2657,16 +2709,16 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="78"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="68"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="79" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="4"/>
@@ -2678,16 +2730,16 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="78"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="68"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
@@ -2695,36 +2747,11 @@
       <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C7:C9"/>
@@ -2741,6 +2768,31 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2753,8 +2805,8 @@
   </sheetPr>
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2778,44 +2830,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
+      <c r="B3" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
     </row>
     <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -2828,65 +2880,65 @@
         <v>39</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="95" t="s">
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="96"/>
+      <c r="R6" s="95"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="62">
+      <c r="B7" s="80">
         <v>1</v>
       </c>
-      <c r="C7" s="89" t="s">
-        <v>98</v>
+      <c r="C7" s="99" t="s">
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="84"/>
+        <v>114</v>
+      </c>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
-      <c r="Q7" s="81" t="s">
+      <c r="Q7" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="82"/>
+      <c r="R7" s="70"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="88"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="19">
         <v>1</v>
@@ -2904,16 +2956,16 @@
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
-      <c r="Q8" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="98"/>
+      <c r="Q8" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="92"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="88"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="2" t="s">
-        <v>100</v>
+      <c r="B9" s="98"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="142" t="s">
+        <v>99</v>
       </c>
       <c r="G9" s="53">
         <v>2</v>
@@ -2941,37 +2993,31 @@
       <c r="R9" s="76"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="88"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="19">
-        <v>3</v>
-      </c>
-      <c r="H10" s="20">
-        <v>3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="54"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
-      <c r="Q10" s="97" t="s">
+      <c r="Q10" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="98"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="88"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="22">
         <v>4</v>
@@ -2991,16 +3037,16 @@
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
-      <c r="Q11" s="97" t="s">
+      <c r="Q11" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="98"/>
+      <c r="R11" s="92"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="2" t="s">
-        <v>103</v>
+      <c r="B12" s="81"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="142" t="s">
+        <v>102</v>
       </c>
       <c r="G12" s="22">
         <v>5</v>
@@ -3020,74 +3066,68 @@
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
-      <c r="Q12" s="97" t="s">
+      <c r="Q12" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="98"/>
+      <c r="R12" s="92"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="62">
+      <c r="B13" s="80">
         <v>2</v>
       </c>
-      <c r="C13" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="19">
-        <v>6</v>
-      </c>
-      <c r="H13" s="20">
-        <v>6</v>
-      </c>
+      <c r="C13" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="J13" s="21"/>
       <c r="K13" s="55"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="75" t="s">
+      <c r="Q13" s="143" t="s">
         <v>37</v>
       </c>
       <c r="R13" s="76"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="19">
+        <v>104</v>
+      </c>
+      <c r="G14" s="144">
         <v>7</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="145">
         <v>7</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21" t="s">
+      <c r="I14" s="146"/>
+      <c r="J14" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="76"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="143" t="s">
+        <v>115</v>
+      </c>
+      <c r="R14" s="148"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G15" s="19">
         <v>8</v>
@@ -3099,22 +3139,26 @@
       <c r="J15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="32"/>
+      <c r="K15" s="55">
+        <v>5</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="75" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="R15" s="76"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G16" s="22">
         <v>9</v>
@@ -3134,16 +3178,16 @@
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
-      <c r="Q16" s="97" t="s">
+      <c r="Q16" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="98"/>
+      <c r="R16" s="92"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G17" s="22">
         <v>10</v>
@@ -3157,22 +3201,22 @@
         <v>10</v>
       </c>
       <c r="L17" s="54" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
-      <c r="Q17" s="97" t="s">
+      <c r="Q17" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="98"/>
+      <c r="R17" s="92"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G18" s="22">
         <v>11</v>
@@ -3186,25 +3230,25 @@
         <v>10</v>
       </c>
       <c r="L18" s="54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
-      <c r="Q18" s="97" t="s">
+      <c r="Q18" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="98"/>
+      <c r="R18" s="92"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="62">
+      <c r="B19" s="80">
         <v>3</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="142" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="19">
@@ -3218,20 +3262,22 @@
         <v>47</v>
       </c>
       <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="L19" s="54" t="s">
+        <v>121</v>
+      </c>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
-      <c r="Q19" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="98"/>
+      <c r="Q19" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19" s="92"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="142" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="22">
@@ -3248,13 +3294,13 @@
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="2" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="142" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="22">
@@ -3271,13 +3317,13 @@
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="142" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="22">
@@ -3294,13 +3340,13 @@
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="92"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="88"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="142" t="s">
         <v>53</v>
       </c>
       <c r="G23" s="22">
@@ -3317,13 +3363,13 @@
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="2" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="142" t="s">
         <v>54</v>
       </c>
       <c r="G24" s="22">
@@ -3340,14 +3386,14 @@
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="62">
+      <c r="B25" s="80">
         <v>4</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="99" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3367,68 +3413,76 @@
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="88"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="88"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="88"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
       <c r="N28" s="41"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="88"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
       <c r="N29" s="42"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="91"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="2" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="B5:D5"/>
@@ -3445,22 +3499,14 @@
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3476,7 +3522,7 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3488,77 +3534,77 @@
     <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" customWidth="1"/>
     <col min="13" max="13" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="85" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="85"/>
+      <c r="N4" s="73"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="119"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="108"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="129"/>
       <c r="M5" s="25" t="s">
         <v>30</v>
       </c>
@@ -3570,7 +3616,7 @@
       <c r="B6" s="23">
         <v>1</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="112" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -3583,20 +3629,20 @@
         <v>10</v>
       </c>
       <c r="G6" s="28">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="105" t="s">
+      <c r="K6" s="130"/>
+      <c r="L6" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="141" t="s">
+      <c r="M6" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="23" t="s">
-        <v>33</v>
+      <c r="N6" s="58" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -3604,27 +3650,27 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="117"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="5">
-        <v>30</v>
+        <v>-5</v>
       </c>
       <c r="G7" s="5">
-        <v>-200</v>
+        <v>178</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>33</v>
+      <c r="K7" s="137"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -3632,27 +3678,27 @@
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="12"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="F8" s="5">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="140" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>33</v>
+      <c r="M8" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -3660,27 +3706,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="139">
-        <v>10</v>
-      </c>
-      <c r="G9" s="139">
-        <v>-10</v>
+      <c r="C9" s="112"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="56">
+        <v>5</v>
+      </c>
+      <c r="G9" s="56">
+        <v>0</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="114"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="140"/>
       <c r="M9" s="12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -3688,7 +3734,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="117"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="30"/>
       <c r="E10" s="12"/>
       <c r="F10" s="15"/>
@@ -3696,8 +3742,8 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="133"/>
       <c r="M10" s="6"/>
       <c r="N10" s="12" t="s">
         <v>33</v>
@@ -3708,7 +3754,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="117"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="30"/>
       <c r="E11" s="12"/>
       <c r="F11" s="15"/>
@@ -3716,8 +3762,8 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="133"/>
       <c r="M11" s="5"/>
       <c r="N11" s="12" t="s">
         <v>33</v>
@@ -3728,7 +3774,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="117"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="30"/>
       <c r="E12" s="12"/>
       <c r="F12" s="15"/>
@@ -3736,8 +3782,8 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="107"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="133"/>
       <c r="M12" s="5"/>
       <c r="N12" s="12" t="s">
         <v>33</v>
@@ -3748,7 +3794,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="118"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="31" t="s">
         <v>33</v>
       </c>
@@ -3770,10 +3816,10 @@
       <c r="J13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="100" t="s">
+      <c r="K13" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="101"/>
+      <c r="L13" s="127"/>
       <c r="M13" s="24" t="s">
         <v>33</v>
       </c>
@@ -3798,7 +3844,7 @@
     </row>
     <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
@@ -3808,135 +3854,139 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="37" t="s">
+      <c r="H17" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="128" t="s">
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="131"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="128" t="s">
+      <c r="N17" s="106"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="108"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="131"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="130"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="124" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="125" t="s">
+      <c r="D18" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="E18" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="126" t="s">
+      <c r="F18" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="127" t="s">
+      <c r="G18" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="136" t="s">
+      <c r="H18" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="133"/>
-      <c r="J18" s="126" t="s">
+      <c r="I18" s="122"/>
+      <c r="J18" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="126" t="s">
+      <c r="L18" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="137" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="126" t="s">
+      <c r="M18" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="O18" s="126" t="s">
+      <c r="P18" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="P18" s="127" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="124"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="127"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="103"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="40" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" s="38">
-        <v>0</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="123"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="39">
+        <v>1</v>
+      </c>
+      <c r="G20" s="44">
+        <v>1</v>
+      </c>
+      <c r="H20" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="118"/>
       <c r="J20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="39">
         <v>0</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N20" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O20" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20" s="39">
         <v>0</v>
@@ -3947,12 +3997,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -3969,20 +4027,12 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3997,15 +4047,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4149,6 +4190,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
@@ -4159,14 +4209,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4182,4 +4224,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>